--- a/Final_Project/Material_for_Documentation/Discriminator and Generator Losses.xlsx
+++ b/Final_Project/Material_for_Documentation/Discriminator and Generator Losses.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\Cognitive Computing Studium\Courses first semester\Implementing ANNs with TensorFlow\IANN_group30\Final_Project\Sources_And_Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7febc520ade5fca9/Master_Cognitive_Computing/1_Semester/IANN_group30/Final_project/Material_for_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7BBD6-A4C2-47D5-A7AF-BCFA8EE9B993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{21D7BBD6-A4C2-47D5-A7AF-BCFA8EE9B993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FBF4BB8C-BEEF-4EAD-943D-5C4ABC21BF9F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="apple2orange" sheetId="2" r:id="rId1"/>
+    <sheet name="monet2photo" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t xml:space="preserve">Apple2Orange - Train-Test Compare for Discriminator and Generator -&gt; Classical Cycle GAN </t>
   </si>
@@ -61,7 +71,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +89,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -107,6 +126,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -193,7 +214,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -233,7 +254,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$22</c:f>
+              <c:f>apple2orange!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -296,7 +317,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$B$22</c:f>
+              <c:f>apple2orange!$B$5:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -353,6 +374,1429 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.13622582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dis_A_Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$26:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$B$26:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18617439999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12646122000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21074161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12357274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1361449999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17803067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1598509999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3365660000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15012381999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dis_B_Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$C$5:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.15652351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11613635999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.135916E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1689580000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1992899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6087870000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4864324E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.102988444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7526090000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7759599999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2518690000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0486159999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6608216000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.635312E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7396219999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6262490000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9237839999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11151303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dis_B_Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$26:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19732711999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10585352000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14714162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121168174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15914740999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17256332999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13249494000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11664337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8885230000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Gen_A_to_B_Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$D$5:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.66585857000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57297164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55845670000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53772489999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51872620000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53046159999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51994467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49019249999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48690918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49899247000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50943989999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47023369999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45889990000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46286142000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46639617999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47711910000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45339742</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45029530000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Gen_A_to_B_Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="29F729"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$26:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$D$26:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.59537370000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52890459999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51156829999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4925021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47903767000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47678986000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47287148000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46282157000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4655166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Gen_B_to_A_Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$E$5:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.62266690000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53949725999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52161944000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50476690000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48046544000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50103235000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49197299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46239918000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45687470000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46671056999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47124516999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44812400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42793569999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43602467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42970819999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44431116999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42886317000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42112163000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Gen_B_to_A_Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FE6100"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>apple2orange!$A$26:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>apple2orange!$E$26:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.57837939999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50988465999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48483916999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49078247000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4761591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46235076000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46849403000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45068701999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47031567000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-775B-4D9D-BB02-76CEE39A7B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074593504"/>
+        <c:axId val="2074583104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074593504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2800"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Training step</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37596524981888574"/>
+              <c:y val="0.93464465785707418"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074583104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2074583104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.2170936212158999E-3"/>
+              <c:y val="0.44796347710871409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074593504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79824601251766603"/>
+          <c:y val="0.3064011146005593"/>
+          <c:w val="0.20175398748233395"/>
+          <c:h val="0.46455782622547903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Discriminator and Generator Losses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5631999619957003E-2"/>
+          <c:y val="0.10626204238921004"/>
+          <c:w val="0.71183180722319217"/>
+          <c:h val="0.77041327204041687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dis_A_Train</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>monet2photo!$A$5:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>monet2photo!$B$5:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.18952322999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12469017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12630953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13009003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13207640000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12678117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13852458000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12203947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11416237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12065951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11869128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12142014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11279274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10616166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10686292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10488939999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11548309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10022536999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +1828,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$26:$A$34</c:f>
+              <c:f>monet2photo!$A$26:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -420,36 +1864,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$26:$B$34</c:f>
+              <c:f>monet2photo!$B$26:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.18617439999999999</c:v>
+                  <c:v>0.31424609999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12646122000000001</c:v>
+                  <c:v>0.28235015000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21074161</c:v>
+                  <c:v>0.2802944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12357274</c:v>
+                  <c:v>0.31112656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1361449999999997E-2</c:v>
+                  <c:v>0.31057030000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17803067</c:v>
+                  <c:v>0.23403235999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1598509999999994E-2</c:v>
+                  <c:v>0.27707225000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3365660000000003E-2</c:v>
+                  <c:v>0.3169574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15012381999999999</c:v>
+                  <c:v>0.27488755999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,7 +1925,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$22</c:f>
+              <c:f>monet2photo!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -544,63 +1988,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$5:$C$22</c:f>
+              <c:f>monet2photo!$C$5:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.15652351</c:v>
+                  <c:v>0.19569143999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11613635999999999</c:v>
+                  <c:v>0.12877266000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.135916E-2</c:v>
+                  <c:v>0.13214427000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1689580000000007E-2</c:v>
+                  <c:v>0.13535754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1992899999999994E-2</c:v>
+                  <c:v>0.15129654000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6087870000000002E-2</c:v>
+                  <c:v>0.13785495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4864324E-2</c:v>
+                  <c:v>0.12463802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.102988444</c:v>
+                  <c:v>0.11642142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7526090000000001E-2</c:v>
+                  <c:v>0.13043684999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7759599999999993E-2</c:v>
+                  <c:v>0.11617892</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2518690000000001E-2</c:v>
+                  <c:v>0.11322002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0486159999999996E-2</c:v>
+                  <c:v>0.12520017999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6608216000000002E-2</c:v>
+                  <c:v>0.118994646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.635312E-2</c:v>
+                  <c:v>0.11140124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7396219999999997E-2</c:v>
+                  <c:v>0.12024275</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6262490000000006E-2</c:v>
+                  <c:v>0.114056334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9237839999999994E-2</c:v>
+                  <c:v>9.9620780000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11151303</c:v>
+                  <c:v>0.10585575999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +2076,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$26:$A$34</c:f>
+              <c:f>monet2photo!$A$26:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -668,36 +2112,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$26:$C$34</c:f>
+              <c:f>monet2photo!$C$26:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.19732711999999999</c:v>
+                  <c:v>0.21506122999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10585352000000001</c:v>
+                  <c:v>0.27682380000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14714162</c:v>
+                  <c:v>0.25736332000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.121168174</c:v>
+                  <c:v>0.26596611999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15914740999999999</c:v>
+                  <c:v>0.17668526000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17256332999999999</c:v>
+                  <c:v>0.20798999000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13249494000000001</c:v>
+                  <c:v>0.15265903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11664337</c:v>
+                  <c:v>0.20398269999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8885230000000005E-2</c:v>
+                  <c:v>0.20530301000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +2173,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$22</c:f>
+              <c:f>monet2photo!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -792,63 +2236,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$5:$D$22</c:f>
+              <c:f>monet2photo!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.66585857000000004</c:v>
+                  <c:v>0.5791309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57297164</c:v>
+                  <c:v>0.49004456000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55845670000000003</c:v>
+                  <c:v>0.45827784999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53772489999999995</c:v>
+                  <c:v>0.44495289999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51872620000000003</c:v>
+                  <c:v>0.43303636000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53046159999999998</c:v>
+                  <c:v>0.4390212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51994467</c:v>
+                  <c:v>0.41385516999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49019249999999998</c:v>
+                  <c:v>0.4139448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48690918</c:v>
+                  <c:v>0.40282615999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49899247000000002</c:v>
+                  <c:v>0.38751210000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50943989999999995</c:v>
+                  <c:v>0.39523360000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47023369999999998</c:v>
+                  <c:v>0.37737556999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45889990000000003</c:v>
+                  <c:v>0.38764710000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46286142000000002</c:v>
+                  <c:v>0.41194984000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46639617999999999</c:v>
+                  <c:v>0.3760194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47711910000000002</c:v>
+                  <c:v>0.37707287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45339742</c:v>
+                  <c:v>0.38703108000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45029530000000001</c:v>
+                  <c:v>0.3765348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +2324,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$26:$A$34</c:f>
+              <c:f>monet2photo!$A$26:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -916,36 +2360,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$26:$D$34</c:f>
+              <c:f>monet2photo!$D$26:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.59537370000000001</c:v>
+                  <c:v>0.50754869999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52890459999999995</c:v>
+                  <c:v>0.42890358000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51156829999999998</c:v>
+                  <c:v>0.41023337999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4925021</c:v>
+                  <c:v>0.40637570000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47903767000000003</c:v>
+                  <c:v>0.38732981999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47678986000000001</c:v>
+                  <c:v>0.38324570000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47287148000000001</c:v>
+                  <c:v>0.37638152000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46282157000000002</c:v>
+                  <c:v>0.419238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4655166</c:v>
+                  <c:v>0.38116383999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +2421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$22</c:f>
+              <c:f>monet2photo!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1040,63 +2484,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$5:$E$22</c:f>
+              <c:f>monet2photo!$E$5:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.62266690000000002</c:v>
+                  <c:v>0.53607786000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53949725999999998</c:v>
+                  <c:v>0.45745345999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52161944000000005</c:v>
+                  <c:v>0.43224105000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50476690000000002</c:v>
+                  <c:v>0.40483380000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48046544000000002</c:v>
+                  <c:v>0.40395720000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50103235000000002</c:v>
+                  <c:v>0.40501150000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49197299999999999</c:v>
+                  <c:v>0.38650604999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46239918000000002</c:v>
+                  <c:v>0.3839185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45687470000000002</c:v>
+                  <c:v>0.3776003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46671056999999999</c:v>
+                  <c:v>0.36397678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47124516999999999</c:v>
+                  <c:v>0.3681005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44812400000000002</c:v>
+                  <c:v>0.35878455999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42793569999999997</c:v>
+                  <c:v>0.36207460000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.43602467</c:v>
+                  <c:v>0.37980095000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42970819999999998</c:v>
+                  <c:v>0.35223650000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44431116999999998</c:v>
+                  <c:v>0.35775757000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42886317000000002</c:v>
+                  <c:v>0.35527107000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.42112163000000002</c:v>
+                  <c:v>0.34511128000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +2572,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$26:$A$34</c:f>
+              <c:f>monet2photo!$A$26:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1164,36 +2608,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$26:$E$34</c:f>
+              <c:f>monet2photo!$E$26:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.57837939999999999</c:v>
+                  <c:v>0.48931676000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50988465999999999</c:v>
+                  <c:v>0.41043538000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48483916999999999</c:v>
+                  <c:v>0.38701679999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49078247000000003</c:v>
+                  <c:v>0.38447144999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4761591</c:v>
+                  <c:v>0.36480558000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46235076000000003</c:v>
+                  <c:v>0.37930226</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46849403000000001</c:v>
+                  <c:v>0.35252187000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45068701999999999</c:v>
+                  <c:v>0.38770673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47031567000000002</c:v>
+                  <c:v>0.35947933999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +2746,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1337,7 +2781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2074583104"/>
@@ -1422,7 +2866,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1457,7 +2901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2074593504"/>
@@ -1508,7 +2952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1542,7 +2986,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1593,6 +3037,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2109,7 +3593,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CB70D4-06A0-42D4-8944-8F364CCA7DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2446,28 +4489,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47284281-A3C5-46EC-9473-2047AA0F9D12}">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>0.19297286999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.15652351</v>
+      </c>
+      <c r="D5">
+        <v>0.66585857000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.62266690000000002</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>0.1584199</v>
+      </c>
+      <c r="C6">
+        <v>0.11613635999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.57297164</v>
+      </c>
+      <c r="E6">
+        <v>0.53949725999999998</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>0.15124447999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.135916E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.55845670000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.52161944000000005</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>0.13217480000000001</v>
+      </c>
+      <c r="C8">
+        <v>9.1689580000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.53772489999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.50476690000000002</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>750</v>
+      </c>
+      <c r="B9">
+        <v>0.13473254000000001</v>
+      </c>
+      <c r="C9">
+        <v>8.1992899999999994E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.51872620000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.48046544000000002</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>0.12802297000000001</v>
+      </c>
+      <c r="C10">
+        <v>7.6087870000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.53046159999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.50103235000000002</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B11">
+        <v>0.11705101</v>
+      </c>
+      <c r="C11">
+        <v>9.4864324E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.51994467</v>
+      </c>
+      <c r="E11">
+        <v>0.49197299999999999</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B12">
+        <v>0.14081440000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.102988444</v>
+      </c>
+      <c r="D12">
+        <v>0.49019249999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.46239918000000002</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>1350</v>
+      </c>
+      <c r="B13">
+        <v>0.10855596000000001</v>
+      </c>
+      <c r="C13">
+        <v>8.7526090000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.48690918</v>
+      </c>
+      <c r="E13">
+        <v>0.45687470000000002</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B14">
+        <v>0.11630839</v>
+      </c>
+      <c r="C14">
+        <v>8.7759599999999993E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.49899247000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.46671056999999999</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>1650</v>
+      </c>
+      <c r="B15">
+        <v>0.11429535</v>
+      </c>
+      <c r="C15">
+        <v>9.2518690000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.50943989999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.47124516999999999</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B16">
+        <v>0.11407088999999999</v>
+      </c>
+      <c r="C16">
+        <v>9.0486159999999996E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.47023369999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.44812400000000002</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B17">
+        <v>0.12511270999999999</v>
+      </c>
+      <c r="C17">
+        <v>8.6608216000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.45889990000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.42793569999999997</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B18">
+        <v>0.10481355000000001</v>
+      </c>
+      <c r="C18">
+        <v>9.635312E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.46286142000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.43602467</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B19">
+        <v>0.12222506</v>
+      </c>
+      <c r="C19">
+        <v>8.7396219999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.46639617999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.42970819999999998</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B20">
+        <v>0.117302425</v>
+      </c>
+      <c r="C20">
+        <v>9.6262490000000006E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.47711910000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.44431116999999998</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2550</v>
+      </c>
+      <c r="B21">
+        <v>0.11653047</v>
+      </c>
+      <c r="C21">
+        <v>9.9237839999999994E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.45339742</v>
+      </c>
+      <c r="E21">
+        <v>0.42886317000000002</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2700</v>
+      </c>
+      <c r="B22">
+        <v>0.13622582</v>
+      </c>
+      <c r="C22">
+        <v>0.11151303</v>
+      </c>
+      <c r="D22">
+        <v>0.45029530000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.42112163000000002</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>0.18617439999999999</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.19732711999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.59537370000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.57837939999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>600</v>
+      </c>
+      <c r="B27">
+        <v>0.12646122000000001</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.10585352000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.52890459999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.50988465999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>0.21074161</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.14714162</v>
+      </c>
+      <c r="D28">
+        <v>0.51156829999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.48483916999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B29">
+        <v>0.12357274</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.121168174</v>
+      </c>
+      <c r="D29">
+        <v>0.4925021</v>
+      </c>
+      <c r="E29">
+        <v>0.49078247000000003</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B30">
+        <v>9.1361449999999997E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.15914740999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.47903767000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.4761591</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B31">
+        <v>0.17803067</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.17256332999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.47678986000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.46235076000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B32">
+        <v>9.1598509999999994E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.13249494000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.47287148000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.46849403000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B33">
+        <v>9.3365660000000003E-2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.11664337</v>
+      </c>
+      <c r="D33">
+        <v>0.46282157000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.45068701999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>2700</v>
+      </c>
+      <c r="B34">
+        <v>0.15012381999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9.8885230000000005E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.4655166</v>
+      </c>
+      <c r="E34">
+        <v>0.47031567000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2488,385 +5140,385 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>150</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.19297286999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.15652351</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.66585857000000004</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.62266690000000002</v>
+      <c r="B5">
+        <v>0.18952322999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.19569143999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.5791309</v>
+      </c>
+      <c r="E5">
+        <v>0.53607786000000002</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>300</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.1584199</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.11613635999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.57297164</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.53949725999999998</v>
+      <c r="B6">
+        <v>0.12469017</v>
+      </c>
+      <c r="C6">
+        <v>0.12877266000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.49004456000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.45745345999999998</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>450</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.15124447999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.135916E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.55845670000000003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.52161944000000005</v>
+      <c r="B7">
+        <v>0.12630953</v>
+      </c>
+      <c r="C7">
+        <v>0.13214427000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.45827784999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.43224105000000002</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>600</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.13217480000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.1689580000000007E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.53772489999999995</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.50476690000000002</v>
+      <c r="B8">
+        <v>0.13009003</v>
+      </c>
+      <c r="C8">
+        <v>0.13535754</v>
+      </c>
+      <c r="D8">
+        <v>0.44495289999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.40483380000000002</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>750</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.13473254000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.1992899999999994E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.51872620000000003</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.48046544000000002</v>
+      <c r="B9">
+        <v>0.13207640000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.15129654000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.43303636000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.40395720000000002</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>900</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.12802297000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.6087870000000002E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.53046159999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.50103235000000002</v>
+      <c r="B10">
+        <v>0.12678117</v>
+      </c>
+      <c r="C10">
+        <v>0.13785495</v>
+      </c>
+      <c r="D10">
+        <v>0.4390212</v>
+      </c>
+      <c r="E10">
+        <v>0.40501150000000002</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>1050</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.11705101</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.4864324E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.51994467</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.49197299999999999</v>
+      <c r="B11">
+        <v>0.13852458000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.12463802</v>
+      </c>
+      <c r="D11">
+        <v>0.41385516999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.38650604999999999</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1200</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.14081440000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.102988444</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.49019249999999998</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.46239918000000002</v>
+      <c r="B12">
+        <v>0.12203947</v>
+      </c>
+      <c r="C12">
+        <v>0.11642142</v>
+      </c>
+      <c r="D12">
+        <v>0.4139448</v>
+      </c>
+      <c r="E12">
+        <v>0.3839185</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>1350</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.10855596000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.7526090000000001E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.48690918</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.45687470000000002</v>
+      <c r="B13">
+        <v>0.11416237</v>
+      </c>
+      <c r="C13">
+        <v>0.13043684999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.40282615999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.3776003</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1500</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.11630839</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.7759599999999993E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.49899247000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.46671056999999999</v>
+      <c r="B14">
+        <v>0.12065951</v>
+      </c>
+      <c r="C14">
+        <v>0.11617892</v>
+      </c>
+      <c r="D14">
+        <v>0.38751210000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.36397678</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1650</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.11429535</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.2518690000000001E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.50943989999999995</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.47124516999999999</v>
+      <c r="B15">
+        <v>0.11869128</v>
+      </c>
+      <c r="C15">
+        <v>0.11322002</v>
+      </c>
+      <c r="D15">
+        <v>0.39523360000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.3681005</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1800</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.11407088999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.0486159999999996E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.47023369999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.44812400000000002</v>
+      <c r="B16">
+        <v>0.12142014</v>
+      </c>
+      <c r="C16">
+        <v>0.12520017999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.37737556999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.35878455999999997</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>1950</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.12511270999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.6608216000000002E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.45889990000000003</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.42793569999999997</v>
+      <c r="B17">
+        <v>0.11279274</v>
+      </c>
+      <c r="C17">
+        <v>0.118994646</v>
+      </c>
+      <c r="D17">
+        <v>0.38764710000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.36207460000000002</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2100</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.10481355000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.635312E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.46286142000000002</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.43602467</v>
+      <c r="B18">
+        <v>0.10616166</v>
+      </c>
+      <c r="C18">
+        <v>0.11140124</v>
+      </c>
+      <c r="D18">
+        <v>0.41194984000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.37980095000000003</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2250</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.12222506</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.7396219999999997E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.46639617999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.42970819999999998</v>
+      <c r="B19">
+        <v>0.10686292</v>
+      </c>
+      <c r="C19">
+        <v>0.12024275</v>
+      </c>
+      <c r="D19">
+        <v>0.3760194</v>
+      </c>
+      <c r="E19">
+        <v>0.35223650000000001</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2400</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.117302425</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.6262490000000006E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.47711910000000002</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.44431116999999998</v>
+      <c r="B20">
+        <v>0.10488939999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.114056334</v>
+      </c>
+      <c r="D20">
+        <v>0.37707287</v>
+      </c>
+      <c r="E20">
+        <v>0.35775757000000002</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2550</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.11653047</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.9237839999999994E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.45339742</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.42886317000000002</v>
+      <c r="B21">
+        <v>0.11548309</v>
+      </c>
+      <c r="C21">
+        <v>9.9620780000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.38703108000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.35527107000000002</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2700</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.13622582</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.11151303</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.45029530000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.42112163000000002</v>
+      <c r="B22">
+        <v>0.10022536999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.10585575999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.3765348</v>
+      </c>
+      <c r="E22">
+        <v>0.34511128000000002</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2883,157 +5535,157 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>300</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.18617439999999999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.19732711999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.59537370000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.57837939999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0.31424609999999997</v>
+      </c>
+      <c r="C26">
+        <v>0.21506122999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.50754869999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.48931676000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>600</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.12646122000000001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.10585352000000001</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.52890459999999995</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.50988465999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0.28235015000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.27682380000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.42890358000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.41043538000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>900</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.21074161</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.14714162</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.51156829999999998</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.48483916999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0.2802944</v>
+      </c>
+      <c r="C28">
+        <v>0.25736332000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.41023337999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.38701679999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>1200</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.12357274</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.121168174</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.4925021</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.49078247000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0.31112656</v>
+      </c>
+      <c r="C29">
+        <v>0.26596611999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.40637570000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.38447144999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>1500</v>
       </c>
-      <c r="B30" s="2">
-        <v>9.1361449999999997E-2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.15914740999999999</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.47903767000000003</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.4761591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0.31057030000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.17668526000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.38732981999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.36480558000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>1800</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.17803067</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.17256332999999999</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.47678986000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.46235076000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0.23403235999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.20798999000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.38324570000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.37930226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>2100</v>
       </c>
-      <c r="B32" s="2">
-        <v>9.1598509999999994E-2</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.13249494000000001</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.47287148000000001</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.46849403000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0.27707225000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.15265903</v>
+      </c>
+      <c r="D32">
+        <v>0.37638152000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.35252187000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2400</v>
       </c>
-      <c r="B33" s="2">
-        <v>9.3365660000000003E-2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.11664337</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.46282157000000002</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.45068701999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0.3169574</v>
+      </c>
+      <c r="C33">
+        <v>0.20398269999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.419238</v>
+      </c>
+      <c r="E33">
+        <v>0.38770673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2700</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.15012381999999999</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9.8885230000000005E-2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.4655166</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.47031567000000002</v>
+      <c r="B34">
+        <v>0.27488755999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.20530301000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.38116383999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.35947933999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Project/Material_for_Documentation/Discriminator and Generator Losses.xlsx
+++ b/Final_Project/Material_for_Documentation/Discriminator and Generator Losses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7febc520ade5fca9/Master_Cognitive_Computing/1_Semester/IANN_group30/Final_project/Material_for_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{21D7BBD6-A4C2-47D5-A7AF-BCFA8EE9B993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FBF4BB8C-BEEF-4EAD-943D-5C4ABC21BF9F}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{21D7BBD6-A4C2-47D5-A7AF-BCFA8EE9B993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C06D50A-ABDA-4B5C-A828-0250373C92E3}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="16875" windowHeight="10523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apple2orange" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t xml:space="preserve">Apple2Orange - Train-Test Compare for Discriminator and Generator -&gt; Classical Cycle GAN </t>
   </si>
@@ -66,13 +66,16 @@
   <si>
     <t>Gen_B_to_A_Test</t>
   </si>
+  <si>
+    <t xml:space="preserve">Monet2Photo - Train-Test Compare for Discriminator and Generator -&gt; Classical Cycle GAN </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,7 +130,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5102,7 +5105,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5116,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
